--- a/Microsoft Office Security Baseline/Office 2016/Office 2016 Security Baseline Policies.xlsx
+++ b/Microsoft Office Security Baseline/Office 2016/Office 2016 Security Baseline Policies.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Computer" sheetId="2" r:id="rId1"/>
     <sheet name="User" sheetId="3" r:id="rId2"/>
-    <sheet name="Custom" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="375">
   <si>
     <t>Microsoft Access 2016\Application Settings\Security\Trust Center</t>
   </si>
@@ -1152,7 +1151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,14 +1170,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1204,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1230,14 +1221,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1553,14 +1538,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="37" style="6" bestFit="1" customWidth="1"/>
@@ -1569,7 +1554,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>340</v>
       </c>
@@ -1586,7 +1571,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -1603,7 +1588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -1620,7 +1605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -1637,7 +1622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -1654,7 +1639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -1671,7 +1656,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -1688,7 +1673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
@@ -1705,7 +1690,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -1722,7 +1707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>103</v>
       </c>
@@ -1739,7 +1724,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -1756,7 +1741,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>103</v>
       </c>
@@ -1773,7 +1758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
@@ -1790,7 +1775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
@@ -1807,37 +1792,54 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1854,7 +1856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,20 +3040,20 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3811,63 +3813,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.140625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Microsoft Office Security Baseline/Office 2016/Office 2016 Security Baseline Policies.xlsx
+++ b/Microsoft Office Security Baseline/Office 2016/Office 2016 Security Baseline Policies.xlsx
@@ -1856,7 +1856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
